--- a/biology/Botanique/Parc_du_Colorado/Parc_du_Colorado.xlsx
+++ b/biology/Botanique/Parc_du_Colorado/Parc_du_Colorado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc du Colorado est un grand espace naturel de l'île de La Réunion, département d'outre-mer français dans le sud-ouest de l'océan Indien. Il est situé au sommet du lieu-dit La Montagne, sur le territoire communal de Saint-Denis, à environ 650 mètres d'altitude. 
@@ -513,10 +525,12 @@
           <t>Radar météorologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Météo-France a été mandatée en 1993 par l’Organisation Météorologique Mondiale (OMM) pour ouvrir le Centre météorologique régional spécialisé cyclones de La Réunion (CMRS) couvrant la zone d'avertissements du sud-ouest de l’océan Indien. Dans le cadre de cette responsabilité, il a alors été décidé d’installer, un radar météorologique Doppler de longueur d'onde de 10 cm à La Réunion pour remplacer celui plus ancien du site antérieur du Chaudron afin de mieux prévenir l'île de l'approche des cyclones tropicaux[1].
-C'est au sommet du parc du Colorado, à une altitude de 746 m (20° 54′ 42″ S, 55° 25′ 19″ E), que le radar a été installé. Cependant, le 22 janvier 2002, lors du passage au nord de l’île du cyclone tropical Dina, il a été lourdement endommagé par les vents et a dû être reconstruit[1]. Ce dernier a été aussi mis hors-circuit entre mai et octobre 2022 pour des travaux de remplacement par un radar en bande S, à double polarisation pour une meilleure précision de détection[2]. À cause du relief montagneux, sa portée est limitée vers le sud et un autre radar a été construit en 2011 au Piton de Villers[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Météo-France a été mandatée en 1993 par l’Organisation Météorologique Mondiale (OMM) pour ouvrir le Centre météorologique régional spécialisé cyclones de La Réunion (CMRS) couvrant la zone d'avertissements du sud-ouest de l’océan Indien. Dans le cadre de cette responsabilité, il a alors été décidé d’installer, un radar météorologique Doppler de longueur d'onde de 10 cm à La Réunion pour remplacer celui plus ancien du site antérieur du Chaudron afin de mieux prévenir l'île de l'approche des cyclones tropicaux.
+C'est au sommet du parc du Colorado, à une altitude de 746 m (20° 54′ 42″ S, 55° 25′ 19″ E), que le radar a été installé. Cependant, le 22 janvier 2002, lors du passage au nord de l’île du cyclone tropical Dina, il a été lourdement endommagé par les vents et a dû être reconstruit. Ce dernier a été aussi mis hors-circuit entre mai et octobre 2022 pour des travaux de remplacement par un radar en bande S, à double polarisation pour une meilleure précision de détection. À cause du relief montagneux, sa portée est limitée vers le sud et un autre radar a été construit en 2011 au Piton de Villers.
 </t>
         </is>
       </c>
